--- a/data/trans_orig/P26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P26-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD531DE-94D5-4566-BC24-E771A3F9BF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F63C55-6856-466E-868F-6FA577F68101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7BB14F7-51D0-4CB9-A5BA-E5F615095EAD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0EFE15E-4335-4DFD-959F-4300A1C42332}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,658 +77,652 @@
     <t>22,06%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>76,49%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
@@ -737,199 +731,217 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>9,24%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A256E51C-9D53-4743-95D3-43C197B7FA66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C402DE4E-D0A7-4DE7-9D5E-8E2F0FCFBF66}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,7 +1948,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1124</v>
@@ -1945,13 +1957,13 @@
         <v>1146829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1980</v>
@@ -1960,13 +1972,13 @@
         <v>2020714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1993,13 @@
         <v>2177981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1898</v>
@@ -1996,13 +2008,13 @@
         <v>1945558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4041</v>
@@ -2011,13 +2023,13 @@
         <v>4123539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE4861-BCAF-4611-B107-9EC51F80FCA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7900B-C2AB-4942-953E-E224FF0A752D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2216,13 +2228,13 @@
         <v>241927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>398</v>
@@ -2231,13 +2243,13 @@
         <v>419878</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
@@ -2246,13 +2258,13 @@
         <v>661805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2279,13 @@
         <v>684429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>741</v>
@@ -2282,13 +2294,13 @@
         <v>801100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1375</v>
@@ -2297,13 +2309,13 @@
         <v>1485529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2383,13 @@
         <v>702904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>707</v>
@@ -2386,13 +2398,13 @@
         <v>757215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>1370</v>
@@ -2401,13 +2413,13 @@
         <v>1460120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2434,13 @@
         <v>1193852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>882</v>
@@ -2437,28 +2449,28 @@
         <v>948150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>2013</v>
       </c>
       <c r="N8" s="7">
-        <v>2142001</v>
+        <v>2142002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2512,7 @@
         <v>3383</v>
       </c>
       <c r="N9" s="7">
-        <v>3602121</v>
+        <v>3602122</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2526,13 +2538,13 @@
         <v>133223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2541,13 +2553,13 @@
         <v>125362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -2556,13 +2568,13 @@
         <v>258585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2589,13 @@
         <v>317145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>278</v>
@@ -2592,13 +2604,13 @@
         <v>307008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -2607,13 +2619,13 @@
         <v>624153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2693,13 @@
         <v>1078054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1215</v>
@@ -2696,13 +2708,13 @@
         <v>1302456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>2231</v>
@@ -2711,13 +2723,13 @@
         <v>2380510</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2744,13 @@
         <v>2195426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>1901</v>
@@ -2747,13 +2759,13 @@
         <v>2056258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>3954</v>
@@ -2762,13 +2774,13 @@
         <v>4251684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D67AC-D9BB-4ECF-B75F-82BDF8A461FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A34BA-1C43-4489-B7A8-B57BBE2F4572}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2979,13 @@
         <v>151364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>173</v>
@@ -2982,13 +2994,13 @@
         <v>186165</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>321</v>
@@ -2997,13 +3009,13 @@
         <v>337529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3030,13 @@
         <v>526467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>621</v>
@@ -3033,13 +3045,13 @@
         <v>692343</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>1158</v>
@@ -3048,10 +3060,10 @@
         <v>1218810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>175</v>
@@ -3462,13 +3474,13 @@
         <v>1668061</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3495,13 @@
         <v>2342415</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2253</v>
@@ -3498,13 +3510,13 @@
         <v>2396055</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>4494</v>
@@ -3513,13 +3525,13 @@
         <v>4738470</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AD09FF-D6B6-4CF9-BA22-6320F49943C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283068B-C569-4964-B80D-4A369CAF32E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3730,13 @@
         <v>52361</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -3733,13 +3745,13 @@
         <v>75284</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
@@ -3748,13 +3760,13 @@
         <v>127645</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,28 +3781,28 @@
         <v>406506</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1041</v>
       </c>
       <c r="I5" s="7">
-        <v>608644</v>
+        <v>608645</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1572</v>
@@ -3799,13 +3811,13 @@
         <v>1015151</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3844,7 @@
         <v>1155</v>
       </c>
       <c r="I6" s="7">
-        <v>683928</v>
+        <v>683929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3873,13 +3885,13 @@
         <v>272582</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -3888,13 +3900,13 @@
         <v>311699</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>584</v>
@@ -3903,13 +3915,13 @@
         <v>584281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3936,13 @@
         <v>1713717</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2317</v>
@@ -3939,13 +3951,13 @@
         <v>1803721</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3942</v>
@@ -3954,13 +3966,13 @@
         <v>3517438</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4040,13 @@
         <v>64093</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -4043,13 +4055,13 @@
         <v>74058</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4058,13 +4070,13 @@
         <v>138151</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>567180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>852</v>
@@ -4094,13 +4106,13 @@
         <v>599115</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1438</v>
@@ -4109,13 +4121,13 @@
         <v>1166294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>389036</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>603</v>
@@ -4198,13 +4210,13 @@
         <v>461041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>898</v>
@@ -4213,13 +4225,13 @@
         <v>850077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4246,13 @@
         <v>2687403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>4210</v>
@@ -4249,13 +4261,13 @@
         <v>3011479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6952</v>
@@ -4264,13 +4276,13 @@
         <v>5698883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P26-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F63C55-6856-466E-868F-6FA577F68101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39AF94E-08CD-476A-A98F-8D347D73A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0EFE15E-4335-4DFD-959F-4300A1C42332}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4F4E288-C364-4721-938D-922692857ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,652 +77,664 @@
     <t>22,06%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>73,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C402DE4E-D0A7-4DE7-9D5E-8E2F0FCFBF66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF76D00-C829-4349-B87E-094CFC0675FA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7900B-C2AB-4942-953E-E224FF0A752D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45692F70-8248-4120-AF05-BF8C26A758D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2249,7 +2261,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
@@ -2258,13 +2270,13 @@
         <v>661805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2291,13 @@
         <v>684429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>741</v>
@@ -2294,13 +2306,13 @@
         <v>801100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1375</v>
@@ -2309,13 +2321,13 @@
         <v>1485529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2395,13 @@
         <v>702904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>707</v>
@@ -2398,13 +2410,13 @@
         <v>757215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1370</v>
@@ -2413,13 +2425,13 @@
         <v>1460120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2446,13 @@
         <v>1193852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>882</v>
@@ -2449,28 +2461,28 @@
         <v>948150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2013</v>
       </c>
       <c r="N8" s="7">
-        <v>2142002</v>
+        <v>2142001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2524,7 @@
         <v>3383</v>
       </c>
       <c r="N9" s="7">
-        <v>3602122</v>
+        <v>3602121</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2538,13 +2550,13 @@
         <v>133223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2553,13 +2565,13 @@
         <v>125362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -2568,13 +2580,13 @@
         <v>258585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2601,13 @@
         <v>317145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>278</v>
@@ -2604,13 +2616,13 @@
         <v>307008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -2619,10 +2631,10 @@
         <v>624153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>140</v>
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A34BA-1C43-4489-B7A8-B57BBE2F4572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F8914-C421-47C5-8583-96197C2529CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3015,7 +3027,7 @@
         <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3042,13 @@
         <v>526467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>621</v>
@@ -3045,13 +3057,13 @@
         <v>692343</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1158</v>
@@ -3060,13 +3072,13 @@
         <v>1218810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>541537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>561</v>
@@ -3149,13 +3161,13 @@
         <v>577035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1066</v>
@@ -3164,13 +3176,13 @@
         <v>1118572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>1423247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1254</v>
@@ -3200,13 +3212,13 @@
         <v>1310625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>2595</v>
@@ -3215,13 +3227,13 @@
         <v>2733872</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3301,13 @@
         <v>98893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -3304,13 +3316,13 @@
         <v>113067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -3319,13 +3331,13 @@
         <v>211961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>392701</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -3355,13 +3367,13 @@
         <v>393087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>741</v>
@@ -3370,13 +3382,13 @@
         <v>785787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3456,13 @@
         <v>791794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>842</v>
@@ -3459,13 +3471,13 @@
         <v>876267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1584</v>
@@ -3474,13 +3486,13 @@
         <v>1668061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3507,13 @@
         <v>2342415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2253</v>
@@ -3510,13 +3522,13 @@
         <v>2396055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4494</v>
@@ -3525,13 +3537,13 @@
         <v>4738470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283068B-C569-4964-B80D-4A369CAF32E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155868D4-B79C-4FE1-8D77-C4729EF8ECB1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3742,13 @@
         <v>52361</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -3745,13 +3757,13 @@
         <v>75284</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
@@ -3760,13 +3772,13 @@
         <v>127645</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>406506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1041</v>
@@ -3796,13 +3808,13 @@
         <v>608645</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1572</v>
@@ -3811,13 +3823,13 @@
         <v>1015151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3897,13 @@
         <v>272582</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -3900,13 +3912,13 @@
         <v>311699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>584</v>
@@ -3915,13 +3927,13 @@
         <v>584281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3948,13 @@
         <v>1713717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2317</v>
@@ -3951,13 +3963,13 @@
         <v>1803721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3942</v>
@@ -3966,13 +3978,13 @@
         <v>3517438</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4052,13 @@
         <v>64093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -4055,13 +4067,13 @@
         <v>74058</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4070,13 +4082,13 @@
         <v>138151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>567180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>852</v>
@@ -4106,13 +4118,13 @@
         <v>599115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1438</v>
@@ -4121,13 +4133,13 @@
         <v>1166294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>389036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>603</v>
@@ -4210,13 +4222,13 @@
         <v>461041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>898</v>
@@ -4225,13 +4237,13 @@
         <v>850077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>2687403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>4210</v>
@@ -4261,13 +4273,13 @@
         <v>3011479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>6952</v>
@@ -4276,13 +4288,13 @@
         <v>5698883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P26-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39AF94E-08CD-476A-A98F-8D347D73A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA784A8F-DEAB-4509-80A2-70C672815975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4F4E288-C364-4721-938D-922692857ABD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3267E97-A425-41D3-B817-440F88056BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -71,415 +71,409 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>19,57%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>73,72%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>38,78%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>35,89%</t>
@@ -488,31 +482,31 @@
     <t>34,75%</t>
   </si>
   <si>
-    <t>37,08%</t>
+    <t>37,19%</t>
   </si>
   <si>
     <t>67,07%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
   </si>
   <si>
     <t>61,22%</t>
   </si>
   <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
-    <t>62,92%</t>
+    <t>62,81%</t>
   </si>
   <si>
     <t>65,25%</t>
@@ -524,217 +518,217 @@
     <t>22,33%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
   <si>
     <t>27,56%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>73,96%</t>
   </si>
   <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
@@ -743,217 +737,199 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF76D00-C829-4349-B87E-094CFC0675FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352E375-F951-491B-9305-E71BAE6233FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1960,7 +1936,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
         <v>1124</v>
@@ -1969,13 +1945,13 @@
         <v>1146829</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1980</v>
@@ -1984,13 +1960,13 @@
         <v>2020714</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +1981,13 @@
         <v>2177981</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1898</v>
@@ -2020,13 +1996,13 @@
         <v>1945558</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4041</v>
@@ -2035,13 +2011,13 @@
         <v>4123539</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45692F70-8248-4120-AF05-BF8C26A758D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E402E-A5AD-4AB2-AC44-C33542EC7128}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2216,13 @@
         <v>241927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>398</v>
@@ -2255,13 +2231,13 @@
         <v>419878</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>628</v>
@@ -2270,13 +2246,13 @@
         <v>661805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2267,13 @@
         <v>684429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>741</v>
@@ -2306,13 +2282,13 @@
         <v>801100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1375</v>
@@ -2321,13 +2297,13 @@
         <v>1485529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2371,13 @@
         <v>702904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>707</v>
@@ -2410,13 +2386,13 @@
         <v>757215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>1370</v>
@@ -2425,13 +2401,13 @@
         <v>1460120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2422,13 @@
         <v>1193852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>882</v>
@@ -2461,13 +2437,13 @@
         <v>948150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>2013</v>
@@ -2476,13 +2452,13 @@
         <v>2142001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2526,13 @@
         <v>133223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2565,13 +2541,13 @@
         <v>125362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -2580,13 +2556,13 @@
         <v>258585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2577,13 @@
         <v>317145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>278</v>
@@ -2616,13 +2592,13 @@
         <v>307008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -2631,13 +2607,13 @@
         <v>624153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2681,13 @@
         <v>1078054</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1215</v>
@@ -2720,13 +2696,13 @@
         <v>1302456</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>2231</v>
@@ -2735,13 +2711,13 @@
         <v>2380510</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2732,13 @@
         <v>2195426</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>1901</v>
@@ -2771,13 +2747,13 @@
         <v>2056258</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>3954</v>
@@ -2786,13 +2762,13 @@
         <v>4251684</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F8914-C421-47C5-8583-96197C2529CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C170748-3688-4660-BADC-9F8F8CAC7FEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2967,13 @@
         <v>151364</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>173</v>
@@ -3006,13 +2982,13 @@
         <v>186165</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>321</v>
@@ -3021,13 +2997,13 @@
         <v>337529</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3018,13 @@
         <v>526467</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>621</v>
@@ -3057,13 +3033,13 @@
         <v>692343</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1158</v>
@@ -3072,13 +3048,13 @@
         <v>1218810</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3122,13 @@
         <v>541537</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>561</v>
@@ -3161,13 +3137,13 @@
         <v>577035</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1066</v>
@@ -3176,13 +3152,13 @@
         <v>1118572</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3173,13 @@
         <v>1423247</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1254</v>
@@ -3212,13 +3188,13 @@
         <v>1310625</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>2595</v>
@@ -3227,13 +3203,13 @@
         <v>2733872</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3277,13 @@
         <v>98893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -3316,13 +3292,13 @@
         <v>113067</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -3331,13 +3307,13 @@
         <v>211961</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3328,13 @@
         <v>392701</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -3367,13 +3343,13 @@
         <v>393087</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>741</v>
@@ -3382,13 +3358,13 @@
         <v>785787</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3432,13 @@
         <v>791794</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>842</v>
@@ -3471,13 +3447,13 @@
         <v>876267</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1584</v>
@@ -3486,13 +3462,13 @@
         <v>1668061</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3483,13 @@
         <v>2342415</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2253</v>
@@ -3522,13 +3498,13 @@
         <v>2396055</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4494</v>
@@ -3537,13 +3513,13 @@
         <v>4738470</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155868D4-B79C-4FE1-8D77-C4729EF8ECB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F1C6E-555E-4747-9B38-A31E37946DF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3718,13 @@
         <v>52361</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -3757,13 +3733,13 @@
         <v>75284</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
@@ -3772,13 +3748,13 @@
         <v>127645</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,28 +3769,28 @@
         <v>406506</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1041</v>
       </c>
       <c r="I5" s="7">
-        <v>608645</v>
+        <v>608644</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1572</v>
@@ -3823,13 +3799,13 @@
         <v>1015151</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3832,7 @@
         <v>1155</v>
       </c>
       <c r="I6" s="7">
-        <v>683929</v>
+        <v>683928</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3897,13 +3873,13 @@
         <v>272582</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -3912,13 +3888,13 @@
         <v>311699</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>584</v>
@@ -3927,13 +3903,13 @@
         <v>584281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3924,13 @@
         <v>1713717</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2317</v>
@@ -3963,13 +3939,13 @@
         <v>1803721</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3942</v>
@@ -3978,13 +3954,13 @@
         <v>3517438</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4028,13 @@
         <v>64093</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -4067,13 +4043,13 @@
         <v>74058</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4082,13 +4058,13 @@
         <v>138151</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4079,13 @@
         <v>567180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>852</v>
@@ -4118,13 +4094,13 @@
         <v>599115</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1438</v>
@@ -4133,13 +4109,13 @@
         <v>1166294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4183,13 @@
         <v>389036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>603</v>
@@ -4222,13 +4198,13 @@
         <v>461041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>898</v>
@@ -4237,13 +4213,13 @@
         <v>850077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4234,13 @@
         <v>2687403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>4210</v>
@@ -4273,13 +4249,13 @@
         <v>3011479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>6952</v>
@@ -4288,13 +4264,13 @@
         <v>5698883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P26-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA784A8F-DEAB-4509-80A2-70C672815975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDB63E3-3255-4E7A-B33C-FB4A8C9ECDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3267E97-A425-41D3-B817-440F88056BC7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A1798B48-A9D2-45AF-A4C6-301C8E7882B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -734,202 +734,220 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352E375-F951-491B-9305-E71BAE6233FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E358F4-22B3-4E4E-8202-23F4D6FFB0B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1716,7 @@
         <v>1897</v>
       </c>
       <c r="N8" s="7">
-        <v>1937794</v>
+        <v>1937793</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1749,7 +1767,7 @@
         <v>3057</v>
       </c>
       <c r="N9" s="7">
-        <v>3120684</v>
+        <v>3120683</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E402E-A5AD-4AB2-AC44-C33542EC7128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E507EB60-D470-40EC-B3DA-AAC5119D4650}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2744,7 +2762,7 @@
         <v>1901</v>
       </c>
       <c r="I14" s="7">
-        <v>2056258</v>
+        <v>2056257</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>151</v>
@@ -2795,7 +2813,7 @@
         <v>3116</v>
       </c>
       <c r="I15" s="7">
-        <v>3358714</v>
+        <v>3358713</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C170748-3688-4660-BADC-9F8F8CAC7FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD3F81-BB88-431C-95AE-77B298D1C64A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F1C6E-555E-4747-9B38-A31E37946DF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C1DA63-19C8-43BD-9991-F36932651C6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3733,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>52361</v>
+        <v>50993</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3730,7 +3748,7 @@
         <v>114</v>
       </c>
       <c r="I4" s="7">
-        <v>75284</v>
+        <v>69797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3745,7 +3763,7 @@
         <v>169</v>
       </c>
       <c r="N4" s="7">
-        <v>127645</v>
+        <v>120790</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3766,7 +3784,7 @@
         <v>531</v>
       </c>
       <c r="D5" s="7">
-        <v>406506</v>
+        <v>385335</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3781,7 +3799,7 @@
         <v>1041</v>
       </c>
       <c r="I5" s="7">
-        <v>608644</v>
+        <v>548229</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3796,7 +3814,7 @@
         <v>1572</v>
       </c>
       <c r="N5" s="7">
-        <v>1015151</v>
+        <v>933564</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3817,7 +3835,7 @@
         <v>586</v>
       </c>
       <c r="D6" s="7">
-        <v>458867</v>
+        <v>436328</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3850,7 @@
         <v>1155</v>
       </c>
       <c r="I6" s="7">
-        <v>683928</v>
+        <v>618026</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3865,7 @@
         <v>1741</v>
       </c>
       <c r="N6" s="7">
-        <v>1142796</v>
+        <v>1054354</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3888,7 @@
         <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>272582</v>
+        <v>470434</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3885,7 +3903,7 @@
         <v>397</v>
       </c>
       <c r="I7" s="7">
-        <v>311699</v>
+        <v>292136</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3900,7 +3918,7 @@
         <v>584</v>
       </c>
       <c r="N7" s="7">
-        <v>584281</v>
+        <v>762570</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3921,7 +3939,7 @@
         <v>1625</v>
       </c>
       <c r="D8" s="7">
-        <v>1713717</v>
+        <v>1649843</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3936,7 +3954,7 @@
         <v>2317</v>
       </c>
       <c r="I8" s="7">
-        <v>1803721</v>
+        <v>1825046</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3951,7 +3969,7 @@
         <v>3942</v>
       </c>
       <c r="N8" s="7">
-        <v>3517438</v>
+        <v>3474889</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3972,7 +3990,7 @@
         <v>1812</v>
       </c>
       <c r="D9" s="7">
-        <v>1986299</v>
+        <v>2120277</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +4005,7 @@
         <v>2714</v>
       </c>
       <c r="I9" s="7">
-        <v>2115420</v>
+        <v>2117182</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4020,7 @@
         <v>4526</v>
       </c>
       <c r="N9" s="7">
-        <v>4101719</v>
+        <v>4237459</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,7 +4043,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>64093</v>
+        <v>64256</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4040,7 +4058,7 @@
         <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>74058</v>
+        <v>70237</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4055,7 +4073,7 @@
         <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>138151</v>
+        <v>134493</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>273</v>
@@ -4076,7 +4094,7 @@
         <v>586</v>
       </c>
       <c r="D11" s="7">
-        <v>567180</v>
+        <v>542346</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>276</v>
@@ -4091,7 +4109,7 @@
         <v>852</v>
       </c>
       <c r="I11" s="7">
-        <v>599115</v>
+        <v>552831</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>279</v>
@@ -4106,7 +4124,7 @@
         <v>1438</v>
       </c>
       <c r="N11" s="7">
-        <v>1166294</v>
+        <v>1095177</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4127,7 +4145,7 @@
         <v>639</v>
       </c>
       <c r="D12" s="7">
-        <v>631273</v>
+        <v>606602</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4160,7 @@
         <v>944</v>
       </c>
       <c r="I12" s="7">
-        <v>673173</v>
+        <v>623068</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4175,7 @@
         <v>1583</v>
       </c>
       <c r="N12" s="7">
-        <v>1304445</v>
+        <v>1229670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4198,46 @@
         <v>295</v>
       </c>
       <c r="D13" s="7">
-        <v>389036</v>
+        <v>585683</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>603</v>
       </c>
       <c r="I13" s="7">
-        <v>461041</v>
+        <v>432170</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>898</v>
       </c>
       <c r="N13" s="7">
-        <v>850077</v>
+        <v>1017853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4249,46 @@
         <v>2742</v>
       </c>
       <c r="D14" s="7">
-        <v>2687403</v>
+        <v>2577525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4210</v>
       </c>
       <c r="I14" s="7">
-        <v>3011479</v>
+        <v>2926105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>6952</v>
       </c>
       <c r="N14" s="7">
-        <v>5698883</v>
+        <v>5503629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4300,7 @@
         <v>3037</v>
       </c>
       <c r="D15" s="7">
-        <v>3076439</v>
+        <v>3163208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4315,7 @@
         <v>4813</v>
       </c>
       <c r="I15" s="7">
-        <v>3472520</v>
+        <v>3358275</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4330,7 @@
         <v>7850</v>
       </c>
       <c r="N15" s="7">
-        <v>6548960</v>
+        <v>6521482</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
